--- a/test/pivot_tables_shangpintuiguang.xlsx
+++ b/test/pivot_tables_shangpintuiguang.xlsx
@@ -497,7 +497,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Y1038-BL</t>
@@ -511,7 +515,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Y1038-BL-1</t>
@@ -525,7 +533,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Y1038-BLACK</t>
@@ -539,7 +551,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -553,7 +569,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -567,7 +587,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Y1038-SILVER</t>
@@ -581,7 +605,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Y1041-BU</t>
@@ -595,7 +623,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Y1041-RE</t>
@@ -609,7 +641,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -623,7 +659,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -637,7 +677,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -651,7 +695,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -665,7 +713,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -679,7 +731,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -693,7 +749,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -707,7 +767,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -721,7 +785,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -735,7 +803,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -749,7 +821,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -763,7 +839,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -777,7 +857,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -791,7 +875,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -805,7 +893,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -819,7 +911,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Y1073-BL</t>
@@ -833,7 +929,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>Y1074-WH</t>
@@ -847,7 +947,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -861,7 +965,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Y1078-WH</t>
@@ -875,7 +983,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -889,7 +1001,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -903,7 +1019,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -917,7 +1037,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -931,7 +1055,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -945,7 +1073,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -959,7 +1091,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -973,7 +1109,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -987,7 +1127,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -1001,7 +1145,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -1015,7 +1163,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -1029,7 +1181,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -1043,7 +1199,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -1057,7 +1217,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -1071,7 +1235,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -1085,7 +1253,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -1099,7 +1271,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -1131,7 +1307,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
           <t>Y2010</t>
@@ -1145,7 +1325,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
           <t>Y2014-1-4</t>
@@ -1159,7 +1343,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
           <t>Y2014-5</t>
@@ -1173,7 +1361,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
           <t>Y2015</t>
@@ -1187,10 +1379,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A47"/>
-    <mergeCell ref="A48:A52"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -1250,7 +1438,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Y1038-BL</t>
@@ -1264,7 +1456,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Y1038-BL-1</t>
@@ -1278,7 +1474,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Y1038-BLACK</t>
@@ -1292,7 +1492,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -1306,7 +1510,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -1320,7 +1528,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Y1038-SILVER</t>
@@ -1334,7 +1546,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Y1041-BU</t>
@@ -1348,7 +1564,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Y1041-RE</t>
@@ -1362,7 +1582,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -1376,7 +1600,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -1390,7 +1618,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -1404,7 +1636,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -1418,7 +1654,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -1432,7 +1672,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -1446,7 +1690,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -1460,7 +1708,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -1474,7 +1726,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -1488,7 +1744,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -1502,7 +1762,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -1516,7 +1780,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -1530,7 +1798,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -1544,7 +1816,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -1558,7 +1834,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -1572,7 +1852,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Y1073-BL</t>
@@ -1586,7 +1870,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>Y1074-WH</t>
@@ -1600,7 +1888,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -1614,7 +1906,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Y1078-WH</t>
@@ -1628,7 +1924,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -1642,7 +1942,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -1656,7 +1960,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Y1080-GR</t>
@@ -1670,7 +1978,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -1684,7 +1996,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -1698,7 +2014,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -1712,7 +2032,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -1726,7 +2050,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -1740,7 +2068,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -1754,7 +2086,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -1768,7 +2104,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Y1088-ZH</t>
@@ -1782,7 +2122,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -1796,7 +2140,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -1810,7 +2158,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -1824,7 +2176,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -1838,7 +2194,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -1852,7 +2212,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -1866,7 +2230,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -1880,7 +2248,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -1912,7 +2284,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
           <t>Y2010</t>
@@ -1926,7 +2302,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
           <t>Y2014-1-4</t>
@@ -1940,7 +2320,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
           <t>Y2014-5</t>
@@ -1954,7 +2338,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
           <t>Y2015</t>
@@ -1968,10 +2356,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A3:A49"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -2031,7 +2415,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Y1038-BL</t>
@@ -2045,7 +2433,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Y1038-BL-1</t>
@@ -2059,7 +2451,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Y1038-BLACK</t>
@@ -2073,7 +2469,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -2087,7 +2487,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -2101,7 +2505,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Y1038-SILVER</t>
@@ -2115,7 +2523,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Y1041-BU</t>
@@ -2129,7 +2541,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Y1041-RE</t>
@@ -2143,7 +2559,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -2157,7 +2577,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -2171,7 +2595,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -2185,7 +2613,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -2199,7 +2631,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -2213,7 +2649,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -2227,7 +2667,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -2241,7 +2685,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -2255,7 +2703,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -2269,7 +2721,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -2283,7 +2739,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -2297,7 +2757,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -2311,7 +2775,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -2325,7 +2793,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -2339,7 +2811,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -2353,7 +2829,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Y1073-BL</t>
@@ -2367,7 +2847,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>Y1074-WH</t>
@@ -2381,7 +2865,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -2395,7 +2883,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Y1078-WH</t>
@@ -2409,7 +2901,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -2423,7 +2919,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -2437,7 +2937,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Y1080-GR</t>
@@ -2451,7 +2955,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
           <t>Y1081-BL</t>
@@ -2465,7 +2973,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -2479,7 +2991,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -2493,7 +3009,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -2507,7 +3027,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -2521,7 +3045,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -2535,7 +3063,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -2549,7 +3081,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -2563,7 +3099,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
           <t>Y1088-ZH</t>
@@ -2577,7 +3117,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -2591,7 +3135,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -2605,7 +3153,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -2619,7 +3171,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -2633,7 +3189,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -2647,7 +3207,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -2661,7 +3225,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -2675,7 +3243,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -2707,7 +3279,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
           <t>Y2008-BL-1</t>
@@ -2721,7 +3297,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
           <t>Y2010</t>
@@ -2735,7 +3315,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
           <t>Y2014-1-4</t>
@@ -2749,7 +3333,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
           <t>Y2014-5</t>
@@ -2763,7 +3351,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
           <t>Y2015</t>
@@ -2777,10 +3369,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A50"/>
-    <mergeCell ref="A51:A56"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>